--- a/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,04%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>69,34%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>78,19%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>27,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,31; 92,94</t>
+          <t>7,3; 12,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,98; 86,16</t>
+          <t>14,19; 22,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,24; 87,57</t>
+          <t>12,45; 19,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,33; 83,14</t>
+          <t>16,65; 24,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,86; 88,64</t>
+          <t>11,22; 16,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,01; 76,25</t>
+          <t>23,79; 30,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,17; 78,08</t>
+          <t>21,83; 30,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,1; 72,11</t>
+          <t>27,73; 33,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,43; 89,8</t>
+          <t>10,18; 14,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,57; 79,13</t>
+          <t>20,96; 26,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,29; 80,68</t>
+          <t>18,79; 24,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,91; 75,0</t>
+          <t>24,69; 29,52</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,52; 99,12</t>
+          <t>0,9; 7,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,43; 96,7</t>
+          <t>3,26; 12,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,76; 96,85</t>
+          <t>3,12; 9,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,73; 93,41</t>
+          <t>6,44; 11,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,8; 96,81</t>
+          <t>3,29; 18,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,59; 91,14</t>
+          <t>8,42; 24,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,23; 91,23</t>
+          <t>8,04; 19,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,7; 96,15</t>
+          <t>3,88; 13,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,13; 97,48</t>
+          <t>2,23; 9,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,32; 93,51</t>
+          <t>6,75; 15,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>86,89; 93,28</t>
+          <t>6,58; 13,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,41; 94,56</t>
+          <t>5,29; 11,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,8; 100,0</t>
+          <t>0,0; 20,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,23; 100,0</t>
+          <t>0,0; 16,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,69; 98,16</t>
+          <t>1,83; 20,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,9; 97,26</t>
+          <t>2,53; 11,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>70,18; 96,54</t>
+          <t>3,5; 32,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,39; 95,51</t>
+          <t>4,58; 35,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,61; 100,0</t>
+          <t>0,0; 19,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,26; 96,36</t>
+          <t>3,7; 12,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,44; 98,15</t>
+          <t>1,83; 16,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>78,67; 97,72</t>
+          <t>2,2; 21,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>85,36; 98,22</t>
+          <t>1,96; 15,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>89,89; 96,04</t>
+          <t>3,72; 9,99</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>82,38%</t>
+          <t>17,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>5,92; 10,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>11,89; 18,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,51; 90,4</t>
+          <t>9,4; 14,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,55; 88,66</t>
+          <t>11,24; 15,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>10,99; 16,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,19; 77,57</t>
+          <t>22,15; 29,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,71; 81,3</t>
+          <t>18,88; 24,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,1; 86,5</t>
+          <t>14,55; 24,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>9,27; 12,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,56; 81,29</t>
+          <t>18,63; 23,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,37; 84,75</t>
+          <t>15,41; 19,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>80,46; 86,07</t>
+          <t>13,88; 19,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,7</t>
+          <t>7,04; 12,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,19; 22,28</t>
+          <t>14,06; 22,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 19,7</t>
+          <t>12,39; 19,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 16,97</t>
+          <t>11,31; 17,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,79; 30,96</t>
+          <t>23,67; 30,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,83; 30,08</t>
+          <t>21,8; 30,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,68</t>
+          <t>10,48; 14,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,96; 26,47</t>
+          <t>21,11; 26,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,79; 24,64</t>
+          <t>18,91; 24,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,69</t>
+          <t>0,9; 7,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 12,38</t>
+          <t>3,26; 14,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,46</t>
+          <t>3,14; 9,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 18,8</t>
+          <t>3,22; 17,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 24,77</t>
+          <t>8,8; 25,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 19,65</t>
+          <t>8,67; 19,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 9,81</t>
+          <t>2,43; 10,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 15,16</t>
+          <t>6,69; 14,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 13,23</t>
+          <t>6,49; 12,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,28</t>
+          <t>0,0; 17,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,35</t>
+          <t>0,0; 21,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 20,34</t>
+          <t>1,76; 21,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 32,38</t>
+          <t>3,46; 30,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 35,67</t>
+          <t>4,64; 38,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,57</t>
+          <t>0,0; 20,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 16,69</t>
+          <t>1,79; 16,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 21,26</t>
+          <t>2,39; 21,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 15,45</t>
+          <t>1,77; 14,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,39</t>
+          <t>5,96; 10,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,5</t>
+          <t>11,73; 18,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,55</t>
+          <t>9,52; 14,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,24</t>
+          <t>11,12; 16,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,15; 29,11</t>
+          <t>22,07; 28,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 24,85</t>
+          <t>18,7; 25,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,92</t>
+          <t>9,39; 13,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,63; 23,47</t>
+          <t>18,7; 23,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 19,76</t>
+          <t>15,55; 20,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,87</t>
+          <t>7,06; 12,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 22,52</t>
+          <t>13,84; 22,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 19,54</t>
+          <t>12,43; 19,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,65; 24,4</t>
+          <t>16,86; 24,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,31; 17,15</t>
+          <t>11,36; 17,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,67; 30,75</t>
+          <t>23,75; 30,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 30,08</t>
+          <t>21,92; 29,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,73; 33,83</t>
+          <t>27,89; 33,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,51</t>
+          <t>10,2; 14,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,11; 26,58</t>
+          <t>20,87; 26,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,78</t>
+          <t>19,32; 24,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,69; 29,52</t>
+          <t>25,0; 30,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,53</t>
+          <t>0,88; 7,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 14,53</t>
+          <t>3,3; 13,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,09</t>
+          <t>3,15; 9,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,98</t>
+          <t>6,59; 12,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 17,69</t>
+          <t>3,19; 18,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 25,02</t>
+          <t>8,86; 25,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 19,53</t>
+          <t>8,77; 20,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,73</t>
+          <t>3,85; 13,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,14</t>
+          <t>2,52; 9,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,86</t>
+          <t>6,49; 15,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 12,99</t>
+          <t>6,72; 13,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 11,63</t>
+          <t>5,44; 11,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,91</t>
+          <t>0,0; 15,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,79</t>
+          <t>0,0; 16,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 21,36</t>
+          <t>1,84; 22,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,17</t>
+          <t>2,74; 11,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 30,15</t>
+          <t>3,46; 29,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 38,44</t>
+          <t>4,49; 36,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,86</t>
+          <t>0,0; 20,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 12,92</t>
+          <t>3,64; 12,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 16,39</t>
+          <t>1,85; 16,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 21,26</t>
+          <t>2,28; 21,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 14,58</t>
+          <t>1,78; 14,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,99</t>
+          <t>3,96; 10,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,58</t>
+          <t>6,2; 10,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,75</t>
+          <t>11,98; 18,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,69</t>
+          <t>9,6; 14,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 15,57</t>
+          <t>11,34; 15,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,32</t>
+          <t>11,15; 16,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,07; 28,99</t>
+          <t>22,43; 28,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,7; 25,12</t>
+          <t>18,7; 25,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,55; 24,03</t>
+          <t>13,5; 23,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,39; 13,09</t>
+          <t>9,36; 12,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,7; 23,32</t>
+          <t>18,71; 23,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 20,14</t>
+          <t>15,25; 19,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,88; 19,52</t>
+          <t>13,93; 19,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>74,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>69,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>73,22%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,69</t>
+          <t>87,31; 92,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 22,02</t>
+          <t>77,98; 86,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,76</t>
+          <t>80,24; 87,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 24,67</t>
+          <t>75,71; 83,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,14</t>
+          <t>82,86; 88,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,75; 30,99</t>
+          <t>69,01; 76,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,92; 29,83</t>
+          <t>70,17; 78,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,89; 33,9</t>
+          <t>66,64; 72,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 14,57</t>
+          <t>85,43; 89,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,87; 26,43</t>
+          <t>73,57; 79,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 24,71</t>
+          <t>75,29; 80,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,0; 30,09</t>
+          <t>70,45; 75,48</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>92,37%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,48</t>
+          <t>92,52; 99,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,57</t>
+          <t>86,43; 96,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,24</t>
+          <t>90,76; 96,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,27</t>
+          <t>87,74; 93,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 18,2</t>
+          <t>81,8; 96,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 25,41</t>
+          <t>74,59; 91,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 20,77</t>
+          <t>79,23; 91,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,3</t>
+          <t>86,96; 97,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 9,87</t>
+          <t>90,13; 97,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,68</t>
+          <t>84,32; 93,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 13,11</t>
+          <t>86,89; 93,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,59</t>
+          <t>88,65; 96,45</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>93,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,2</t>
+          <t>84,8; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,77</t>
+          <t>83,23; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 22,31</t>
+          <t>77,69; 98,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,1</t>
+          <t>89,5; 97,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 29,82</t>
+          <t>70,18; 96,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 36,61</t>
+          <t>63,39; 95,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,39</t>
+          <t>79,61; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 12,74</t>
+          <t>87,36; 96,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 16,56</t>
+          <t>83,44; 98,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 21,33</t>
+          <t>78,67; 97,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 14,64</t>
+          <t>85,36; 98,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 10,11</t>
+          <t>90,17; 96,15</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>88,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>74,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>79,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>83,77%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,73</t>
+          <t>89,27; 93,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,4</t>
+          <t>81,6; 88,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 14,49</t>
+          <t>85,51; 90,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,45</t>
+          <t>84,78; 88,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,43</t>
+          <t>83,57; 88,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,43; 28,81</t>
+          <t>71,19; 77,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,7; 25,29</t>
+          <t>74,71; 81,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 23,9</t>
+          <t>76,58; 90,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 12,99</t>
+          <t>87,01; 90,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 23,44</t>
+          <t>76,56; 81,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,25; 19,63</t>
+          <t>80,37; 84,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 19,54</t>
+          <t>80,99; 89,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,31; 92,94</t>
+          <t>87,44; 93,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,98; 86,16</t>
+          <t>77,6; 86,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,24; 87,57</t>
+          <t>80,21; 87,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,71; 83,41</t>
+          <t>75,64; 83,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,86; 88,64</t>
+          <t>83,06; 88,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,01; 76,25</t>
+          <t>68,77; 76,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,17; 78,08</t>
+          <t>70,26; 78,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,64; 72,53</t>
+          <t>66,72; 72,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,43; 89,8</t>
+          <t>85,36; 89,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,57; 79,13</t>
+          <t>73,33; 79,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,29; 80,68</t>
+          <t>75,19; 81,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>70,45; 75,48</t>
+          <t>70,61; 75,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,52; 99,12</t>
+          <t>92,26; 99,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,43; 96,7</t>
+          <t>86,61; 96,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,76; 96,85</t>
+          <t>90,68; 97,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,74; 93,46</t>
+          <t>87,86; 93,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,8; 96,81</t>
+          <t>81,38; 96,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,59; 91,14</t>
+          <t>75,4; 91,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,23; 91,23</t>
+          <t>79,54; 91,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,96; 97,68</t>
+          <t>86,76; 97,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,13; 97,48</t>
+          <t>90,02; 97,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,32; 93,51</t>
+          <t>84,45; 93,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>86,89; 93,28</t>
+          <t>86,69; 93,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,65; 96,45</t>
+          <t>88,79; 96,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,8; 100,0</t>
+          <t>79,9; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,23; 100,0</t>
+          <t>76,58; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,69; 98,16</t>
+          <t>78,07; 98,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,5; 97,33</t>
+          <t>89,43; 97,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>70,18; 96,54</t>
+          <t>68,53; 96,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,39; 95,51</t>
+          <t>62,61; 95,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,61; 100,0</t>
+          <t>80,25; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,36; 96,35</t>
+          <t>87,37; 96,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,44; 98,15</t>
+          <t>83,93; 98,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>78,67; 97,72</t>
+          <t>80,22; 97,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>85,36; 98,22</t>
+          <t>84,48; 98,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>90,17; 96,15</t>
+          <t>90,66; 96,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>89,41; 94,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>81,53; 88,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,51; 90,4</t>
+          <t>85,25; 90,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,78; 88,82</t>
+          <t>84,76; 88,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>83,56; 89,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,19; 77,57</t>
+          <t>70,96; 77,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,71; 81,3</t>
+          <t>74,71; 81,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,58; 90,64</t>
+          <t>76,3; 90,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>86,81; 90,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,56; 81,29</t>
+          <t>76,59; 81,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,37; 84,75</t>
+          <t>80,32; 84,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>80,99; 89,77</t>
+          <t>81,06; 89,98</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>337189</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>339952</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>297619</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>212910</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>505463</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>461298</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>412821</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>345413</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>842653</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>801249</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>710440</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>558322</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>326309; 347471</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>321593; 356490</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>283865; 309656</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>202246; 222680</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>488199; 521271</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>436353; 482766</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>389780; 435345</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>330309; 359279</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>820276; 861842</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>769170; 829778</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>683255; 736020</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>538373; 574903</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>85636</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>110562</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>181892</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>248860</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56763</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>70296</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>162636</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>424206</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>142399</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>180858</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>344529</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>673066</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>81261; 87290</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>102770; 114753</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>174587; 186955</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>240081; 255673</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50625; 60187</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62638; 75666</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>149597; 171733</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>395111; 445923</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>135292; 146639</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>170370; 188367</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>329932; 355318</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>646973; 704264</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39740</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25589</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38853</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>99325</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23520</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18931</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32298</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66078</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>63260</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44521</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>71151</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>165403</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32914; 41194</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20352; 26575</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32811; 41247</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93886; 102002</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18421; 25932</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13928; 21262</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27024; 33674</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>62316; 68616</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>57138; 66891</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>39167; 47686</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>63955; 74302</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>159850; 169711</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>462565</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>476102</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>518365</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>561094</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>585747</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>550525</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>607756</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>835696</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1048312</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1026627</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1126121</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1396790</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>449238; 472568</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>456251; 494339</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>501675; 531311</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>547257; 573335</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>565581; 602613</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>524995; 573578</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>580105; 633392</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>779615; 921860</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1023807; 1067262</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>995319; 1055524</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1096323; 1154535</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1351713; 1500353</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>